--- a/HeroHours Simple.xlsx
+++ b/HeroHours Simple.xlsx
@@ -412,17 +412,17 @@
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f>SUMIF('Data Log'!A:A,A2,#REF!)</f>
-        <v>#N/A</v>
+      <c r="D2" s="5">
+        <f>SUMIF('Data Log'!A:A,A2,'Data Log'!D:D)</f>
+        <v>0.4716290741</v>
       </c>
       <c r="E2" s="6" t="b">
         <f>NOT(COUNTIFS('Data Log'!A:A,A2,'Data Log'!B:B,"")=COUNTIFS('Data Log'!A:A,A2,'Data Log'!C:C,""))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="str">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F3" si="1">value(D2*24*3600)</f>
-        <v>#N/A</v>
+        <v>40748.752</v>
       </c>
     </row>
     <row r="3">
@@ -435,17 +435,17 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>SUMIF('Data Log'!A:A,A3,#REF!)</f>
-        <v>#N/A</v>
+      <c r="D3" s="5">
+        <f>SUMIF('Data Log'!A:A,A3,'Data Log'!D:D)</f>
+        <v>0.4755471528</v>
       </c>
       <c r="E3" s="6" t="b">
         <f>NOT(COUNTIFS('Data Log'!A:A,A3,'Data Log'!B:B,"")=COUNTIFS('Data Log'!A:A,A3,'Data Log'!C:C,""))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>41087.274</v>
       </c>
     </row>
     <row r="4">
